--- a/easypoi/src/main/resources/export/模版导出-错误数据(test01_ImportProgressBar).xlsx
+++ b/easypoi/src/main/resources/export/模版导出-错误数据(test01_ImportProgressBar).xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15" count="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23" count="120">
   <si>
     <t>{{title}}</t>
   </si>
@@ -23,7 +23,7 @@
     <t>{{fe: students t.name</t>
   </si>
   <si>
-    <t>t.sex=1 ? 男:女</t>
+    <t>t.sexStr</t>
   </si>
   <si>
     <t>fd:(t.birthday;yyyy-MM-dd)</t>
@@ -57,6 +57,30 @@
   </si>
   <si>
     <t>学生姓名不能为空</t>
+  </si>
+  <si>
+    <t>出生日期不能为空,学生姓名不能为空</t>
+  </si>
+  <si>
+    <t>名称6</t>
+  </si>
+  <si>
+    <t>出生日期不能为空,学生性别不能为空</t>
+  </si>
+  <si>
+    <t>名称7</t>
+  </si>
+  <si>
+    <t>出生日期不能为空</t>
+  </si>
+  <si>
+    <t>名称8</t>
+  </si>
+  <si>
+    <t>学生性别不能为空</t>
+  </si>
+  <si>
+    <t>名称10</t>
   </si>
 </sst>
 </file>
@@ -291,7 +315,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf applyAlignment="1" applyBorder="0" applyFill="0" applyFont="1" applyNumberFormat="0" applyProtection="0" fontId="0" numFmtId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -328,10 +352,13 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="4" fontId="4" numFmtId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="2" fontId="3" numFmtId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="0" applyProtection="0" borderId="10" fillId="2" fontId="0" numFmtId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="2" fontId="0" numFmtId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="0" applyProtection="0" borderId="10" fillId="2" fontId="0" numFmtId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="0" applyFont="1" applyNumberFormat="0" applyProtection="0" borderId="10" fontId="0" numFmtId="0">
@@ -1444,7 +1471,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="16.3333" defaultRowHeight="13.9" outlineLevelCol="0" outlineLevelRow="0"/>
   <cols>
     <col min="1" max="1" customWidth="true" style="1" width="30.9922" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="1" width="16.3516" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="1" width="45.9453" collapsed="false"/>
     <col min="3" max="3" customWidth="true" style="1" width="40.2578" collapsed="false"/>
     <col min="4" max="4" customWidth="true" style="1" width="40.2578" collapsed="false"/>
     <col min="5" max="256" customWidth="true" style="1" width="16.3516" collapsed="false"/>
@@ -1493,81 +1520,81 @@
         <v>14</v>
       </c>
     </row>
-    <row customHeight="1" ht="20.05" r="4">
-      <c r="A4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20.05" r="5">
-      <c r="A5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20.05" r="6">
-      <c r="A6" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20.05" r="7">
-      <c r="A7" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="20.05" r="8">
-      <c r="A8" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>6</v>
+    <row r="4" ht="20.25" customHeight="true">
+      <c r="A4" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="20.25" customHeight="true">
+      <c r="A5" t="s" s="7">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" ht="20.25" customHeight="true">
+      <c r="A6" t="s" s="7">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" ht="20.25" customHeight="true">
+      <c r="A7" t="s" s="7">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s" s="9">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s" s="10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" ht="20.25" customHeight="true">
+      <c r="A8" t="s" s="7">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s" s="10">
+        <v>19</v>
       </c>
     </row>
     <row customHeight="1" ht="20.05" r="9">
       <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -1581,7 +1608,7 @@
       <c r="A10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -1595,7 +1622,7 @@
       <c r="A11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="13" t="s">
@@ -1609,7 +1636,7 @@
       <c r="A12" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -1623,7 +1650,7 @@
       <c r="A13" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -1637,13 +1664,13 @@
       <c r="A14" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="15" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1651,7 +1678,7 @@
       <c r="A15" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -1665,7 +1692,7 @@
       <c r="A16" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="13" t="s">
@@ -1679,7 +1706,7 @@
       <c r="A17" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="13" t="s">
@@ -1693,7 +1720,7 @@
       <c r="A18" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -1707,7 +1734,7 @@
       <c r="A19" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="13" t="s">
@@ -1721,7 +1748,7 @@
       <c r="A20" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="13" t="s">
@@ -1735,7 +1762,7 @@
       <c r="A21" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -1749,7 +1776,7 @@
       <c r="A22" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="13" t="s">
@@ -1763,7 +1790,7 @@
       <c r="A23" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C23" s="13" t="s">
